--- a/medicine/Mort/Décès_en_1922/Décès_en_1922.xlsx
+++ b/medicine/Mort/Décès_en_1922/Décès_en_1922.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Inconnu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eugène-Toussaint Cateland, architecte français. (° 28 mars 1840).
 Gustave Charlier, architecte belge. (° 1848).
@@ -545,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +577,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er janvier : Augusto Alberici, peintre et collectionneur d'art italien (° septembre 1846).
 4 janvier : Francesco Gioli, peintre italien (° 29 juin 1846).
@@ -589,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,7 +623,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>16 février :
 Richard Jordan, architecte et maître d'œuvre de l'historicisme autrichien (° 6 mars 1847).
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +660,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1er mars : Marius Toudoire, architecte français. (° 15 novembre 1852).
 2 mars : Edmond Debon, peintre français (° 18 décembre 1846).
@@ -667,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,7 +705,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1er avril :
 Charles Ier d'Autriche, dernier empereur et roi d'Autriche-Hongrie (° 10 juillet 1871).
@@ -704,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,7 +744,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1er mai : Vassily Denissov, peintre symboliste, décorateur de théâtre et graphiste polonais puis russe puis soviétique (° 1er janvier 1862).
 2 mai : Anna Missuna, géologue russe (° 12 novembre 1868).
@@ -742,7 +766,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -760,7 +784,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>17 juin : Gaetano Brunacci, peintre italien (° 14 septembre 1830).
 20 juin :  Misti, peintre, affichiste, lithographe et illustrateur français (° 10 septembre 1865).
@@ -779,7 +805,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -797,7 +823,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>8 juillet : Ferdinand Keller, peintre allemand (° 5 août 1842).
 12 juillet :
@@ -819,7 +847,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -837,7 +865,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>2 août : Julius von Blaas, peintre italien (° 22 août 1845).
 4 août : Ismail Enver, officier militaire turc (° 22 novembre 1881)
@@ -857,7 +887,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -875,7 +905,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1er septembre : Edmund Blair Leighton, peintre britannique (° 21 septembre 1853).
 6 septembre : Georgette Agutte, peintre et sculptrice française (° 17 mai 1867).
@@ -898,7 +930,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -916,7 +948,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>9 octobre : Josep Rodoreda, musicien et compositeur espagnol (° 13 février 1851).
 12 octobre : Cecilia Flamand, danseuse suédoise (° 20 juillet 1860).
@@ -933,7 +967,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -951,7 +985,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2 novembre :
 Alexandre Cousebandt d'Alkemade, militaire et homme politique belge (° 26 avril 1840).
@@ -971,7 +1007,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1922</t>
+          <t>Décès_en_1922</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -989,7 +1025,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">3 décembre : Ernest Burnat, architecte suisse (° 7 octobre 1833).
 11 décembre : Alfred-Charles Weber, peintre français (° 20 avril 1862).
